--- a/gfx/Benchmark.xlsx
+++ b/gfx/Benchmark.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laptop" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Test nº</t>
   </si>
@@ -170,18 +170,6 @@
   </si>
   <si>
     <t>kbytes</t>
-  </si>
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
   </si>
   <si>
     <t>RPi3/Laptop</t>
@@ -1323,7 +1311,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000000-BF0C-4CB2-8AD6-B5752AECC522}"/>
+                        <c16:uniqueId val="{00000000-40BC-4C88-A39C-6A9BE4330CA2}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -3863,7 +3851,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10993,15 +10981,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>341779</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>732865</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76760</xdr:rowOff>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12062,7 +12050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93900DC8-0252-4F44-8916-E2153ACA0BFD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -12070,16 +12058,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -15868,7 +15856,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="24">
         <f>B3/B2</f>
@@ -15905,7 +15893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
